--- a/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 0,0</t>
+          <t>-22,54; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 7,76</t>
+          <t>-25,17; 7,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 0,0</t>
+          <t>-22,54; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 8,73</t>
+          <t>-26,74; 8,82</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,36</t>
+          <t>-3,68; 2,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -7,07</t>
+          <t>-19,37; -7,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 2,44</t>
+          <t>-3,73; 2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -8,01</t>
+          <t>-21,15; -8,29</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; -0,55</t>
+          <t>-6,11; -0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 5,96</t>
+          <t>-22,68; 5,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; -0,58</t>
+          <t>-6,14; -0,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 9,58</t>
+          <t>-27,35; 7,55</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,25</t>
+          <t>-4,35; 0,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 9,78</t>
+          <t>-16,99; 12,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,28</t>
+          <t>-4,4; 0,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 12,63</t>
+          <t>-20,73; 16,42</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,61</t>
+          <t>-2,35; 0,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -7,54</t>
+          <t>-21,13; -7,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,62</t>
+          <t>-2,36; 0,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,21; -9,38</t>
+          <t>-25,39; -8,74</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,44</t>
+          <t>-2,69; -0,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -1,3</t>
+          <t>-16,16; -1,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,44</t>
+          <t>-2,72; -0,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -1,63</t>
+          <t>-19,52; -2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,33</t>
+          <t>-4,19; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,39</t>
+          <t>-4,24; 2,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; -0,55</t>
+          <t>-5,36; -0,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -0,55</t>
+          <t>-5,44; -0,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,24</t>
+          <t>-4,21; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,24</t>
+          <t>-4,24; 0,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,57</t>
+          <t>-2,33; 0,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,58</t>
+          <t>-2,35; 0,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,69; -0,38</t>
+          <t>-2,74; -0,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,39</t>
+          <t>-2,78; -0,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">

--- a/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 0,0</t>
+          <t>-23,86; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 7,46</t>
+          <t>-24,8; 7,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 0,0</t>
+          <t>-23,86; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 8,82</t>
+          <t>-27,06; 8,73</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,28</t>
+          <t>-3,73; 2,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; -7,18</t>
+          <t>-18,9; -7,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,33</t>
+          <t>-3,83; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -8,29</t>
+          <t>-20,59; -8,01</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -0,43</t>
+          <t>-5,56; -0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 5,98</t>
+          <t>-22,4; 5,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,43</t>
+          <t>-5,64; -0,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 7,55</t>
+          <t>-27,45; 9,58</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,4</t>
+          <t>-4,58; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 12,82</t>
+          <t>-17,6; 9,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,41</t>
+          <t>-4,6; 0,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 16,42</t>
+          <t>-21,04; 12,63</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,62</t>
+          <t>-2,45; 0,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -7,01</t>
+          <t>-21,34; -7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,62</t>
+          <t>-2,45; 0,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,39; -8,74</t>
+          <t>-25,21; -9,38</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,53</t>
+          <t>-2,74; -0,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -1,56</t>
+          <t>-15,86; -1,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,55</t>
+          <t>-2,77; -0,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -2,12</t>
+          <t>-19,04; -1,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,94</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>-13,33%</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 0,0</t>
+          <t>-5,2; 1,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 7,76</t>
+          <t>-17,85; -6,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 0,0</t>
+          <t>-5,26; 1,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 8,73</t>
+          <t>-19,52; -7,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,98</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>8,14%</t>
         </is>
       </c>
     </row>
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,36</t>
+          <t>-5,56; -0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -7,07</t>
+          <t>-22,0; 37,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 2,44</t>
+          <t>-5,64; -0,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -8,01</t>
+          <t>-26,25; 145,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,73</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,04%</t>
+          <t>-1,52%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; -0,55</t>
+          <t>-4,58; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 5,96</t>
+          <t>-18,94; 13,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; -0,58</t>
+          <t>-4,6; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 9,58</t>
+          <t>-22,54; 17,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-20,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-25,08%</t>
         </is>
       </c>
     </row>
@@ -789,29 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,25</t>
+          <t>-2,45; 0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 9,78</t>
+          <t>-47,37; -8,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,28</t>
+          <t>-2,45; 0,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 12,63</t>
+          <t>-57,3; -10,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>-5,41%</t>
         </is>
       </c>
     </row>
@@ -849,94 +849,34 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,61</t>
+          <t>-2,74; -0,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -7,54</t>
+          <t>-17,95; 19,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,62</t>
+          <t>-2,77; -0,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,21; -9,38</t>
+          <t>-22,03; 36,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-10,78</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,56%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-13,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; -0,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-15,86; -1,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; -0,44</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; -1,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -945,7 +885,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Habitat-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,22 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-37,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,06</t>
+          <t>-35,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>-34,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-28,95</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-61,07%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-62,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-56,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-55,03%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,08</t>
+          <t>-42,08; -32,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -6,41</t>
+          <t>-40,75; -30,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,1</t>
+          <t>-39,75; -29,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -7,27</t>
+          <t>-34,25; -24,33</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-66,59; -55,55</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-68,1; -55,81</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-63,12; -51,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-61,01; -48,43</t>
         </is>
       </c>
     </row>
@@ -641,22 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-32,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>-30,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-25,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>-18,96</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-55,48%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-55,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-46,98%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-47,37%</t>
         </is>
       </c>
     </row>
@@ -669,22 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; -0,55</t>
+          <t>-36,39; -27,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 37,8</t>
+          <t>-34,98; -26,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,64; -0,58</t>
+          <t>-29,7; -20,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 145,43</t>
+          <t>-30,59; 0,62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-60,24; -49,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-61,04; -49,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-53,05; -40,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-59,77; -0,36</t>
         </is>
       </c>
     </row>
@@ -701,22 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-27,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-32,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-26,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-6,1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-60,68%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-57,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-48,69%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
         </is>
       </c>
     </row>
@@ -729,22 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,25</t>
+          <t>-32,4; -22,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 13,63</t>
+          <t>-37,65; -27,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,28</t>
+          <t>-31,54; -21,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 17,86</t>
+          <t>-24,6; 28,04</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-67,43; -53,78</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-64,06; -50,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-55,01; -41,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-51,95; 63,71</t>
         </is>
       </c>
     </row>
@@ -761,22 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-25,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,57</t>
+          <t>-25,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-22,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>-21,23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-47,85%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-44,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-36,89%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-44,3%</t>
         </is>
       </c>
     </row>
@@ -789,22 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,61</t>
+          <t>-29,72; -21,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; -8,51</t>
+          <t>-29,68; -21,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,62</t>
+          <t>-26,98; -17,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,3; -10,55</t>
+          <t>-27,55; -16,95</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-53,45; -41,06</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-50,95; -38,49</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-43,15; -30,62</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-56,06; -37,23</t>
         </is>
       </c>
     </row>
@@ -821,22 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-30,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-30,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-26,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-17,61</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-55,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-54,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-46,2%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-38,49%</t>
         </is>
       </c>
     </row>
@@ -849,22 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,44</t>
+          <t>-32,71; -28,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 19,81</t>
+          <t>-32,76; -27,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,44</t>
+          <t>-28,68; -23,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 36,07</t>
+          <t>-24,43; -1,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; -52,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-57,11; -50,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-49,13; -42,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-50,25; -2,74</t>
         </is>
       </c>
     </row>
@@ -878,11 +1117,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
